--- a/kana_layout_2mora_score.xlsx
+++ b/kana_layout_2mora_score.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Text\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Text\analysis\kana_layout_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8C40D0AE-826E-4329-A204-2AA1A1F30F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07DF906-397D-4FFC-BD85-2128B47BADF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_table" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,20 @@
     <sheet name="単打・同時打鍵重複" sheetId="3" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -613,12 +626,6 @@
     <t>1: cost=3.8, score=28439.2, total_score=28439.2</t>
   </si>
   <si>
-    <t>10: cost=3.93, score=19881.87, total_score=295987.03</t>
-  </si>
-  <si>
-    <t>100: cost=8.87, score=16187.75, total_score=1895321.91</t>
-  </si>
-  <si>
     <t>1: cost=4.83, score=36147.72, total_score=36147.72</t>
   </si>
   <si>
@@ -662,90 +669,6 @@
   </si>
   <si>
     <t>6500: cost=8.83, score=8.83, total_score=8279561.12</t>
-  </si>
-  <si>
-    <t>500: cost=6.27, score=3498.66, total_score=4734370.86</t>
-  </si>
-  <si>
-    <t>1000: cost=9.03, score=2401.98, total_score=6218562.73</t>
-  </si>
-  <si>
-    <t>1500: cost=8.43, score=1331.94, total_score=7067493.05</t>
-  </si>
-  <si>
-    <t>2000: cost=6.9, score=662.4, total_score=7575843.36</t>
-  </si>
-  <si>
-    <t>2500: cost=8.17, score=490.2, total_score=7900043.19</t>
-  </si>
-  <si>
-    <t>3000: cost=9.0, score=333.0, total_score=8103380.32</t>
-  </si>
-  <si>
-    <t>3500: cost=8.87, score=212.88, total_score=8232477.21</t>
-  </si>
-  <si>
-    <t>4000: cost=8.23, score=123.45, total_score=8317253.62</t>
-  </si>
-  <si>
-    <t>4500: cost=8.63, score=86.3, total_score=8372443.19</t>
-  </si>
-  <si>
-    <t>5000: cost=7.13, score=42.78, total_score=8408226.76</t>
-  </si>
-  <si>
-    <t>5500: cost=7.67, score=30.68, total_score=8429909.67</t>
-  </si>
-  <si>
-    <t>6000: cost=8.03, score=16.06, total_score=8442966.7</t>
-  </si>
-  <si>
-    <t>6500: cost=9.43, score=9.43, total_score=8450523.08</t>
-  </si>
-  <si>
-    <t>10: cost=6.53, score=33035.27, total_score=342571.59</t>
-  </si>
-  <si>
-    <t>100: cost=7.0, score=12775.0, total_score=1947978.56</t>
-  </si>
-  <si>
-    <t>500: cost=13.57, score=7572.06, total_score=4701151.62</t>
-  </si>
-  <si>
-    <t>1000: cost=7.97, score=2120.02, total_score=6118692.38</t>
-  </si>
-  <si>
-    <t>1500: cost=7.2, score=1137.6, total_score=6943822.49</t>
-  </si>
-  <si>
-    <t>2000: cost=10.47, score=1005.12, total_score=7467708.05</t>
-  </si>
-  <si>
-    <t>2500: cost=10.93, score=655.8, total_score=7810694.5</t>
-  </si>
-  <si>
-    <t>3000: cost=8.43, score=311.91, total_score=8030252.27</t>
-  </si>
-  <si>
-    <t>3500: cost=11.27, score=270.48, total_score=8171939.67</t>
-  </si>
-  <si>
-    <t>4000: cost=7.2, score=108.0, total_score=8268572.94</t>
-  </si>
-  <si>
-    <t>4500: cost=10.83, score=108.3, total_score=8333310.23</t>
-  </si>
-  <si>
-    <t>5000: cost=8.8, score=52.8, total_score=8376744.01</t>
-  </si>
-  <si>
-    <t>5500: cost=9.17, score=36.68, total_score=8403484.78</t>
-  </si>
-  <si>
-    <t>6000: cost=11.33, score=22.66, total_score=8420099.51</t>
-  </si>
-  <si>
-    <t>6500: cost=8.43, score=8.43, total_score=8429362.59</t>
   </si>
   <si>
     <r>
@@ -775,60 +698,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">score = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>7.43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>; total_score = 8451375.84, total_count = 1137532</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">score = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>7.41</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>; total_score = 8430338.04, total_count = 1137532</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>上左→</t>
   </si>
   <si>
@@ -1520,17 +1389,161 @@
     </r>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>10: cost=3.93, score=19881.87, total_score=290630.03</t>
+  </si>
+  <si>
+    <t>100: cost=8.87, score=16187.75, total_score=1841849.91</t>
+  </si>
+  <si>
+    <t>500: cost=5.27, score=2940.66, total_score=4591636.86</t>
+  </si>
+  <si>
+    <t>1000: cost=9.03, score=2401.98, total_score=6027801.73</t>
+  </si>
+  <si>
+    <t>1500: cost=7.43, score=1173.94, total_score=6851912.05</t>
+  </si>
+  <si>
+    <t>2000: cost=5.9, score=566.4, total_score=7341093.36</t>
+  </si>
+  <si>
+    <t>2500: cost=8.17, score=490.2, total_score=7656211.19</t>
+  </si>
+  <si>
+    <t>3000: cost=9.0, score=333.0, total_score=7852816.32</t>
+  </si>
+  <si>
+    <t>3500: cost=8.87, score=212.88, total_score=7977922.21</t>
+  </si>
+  <si>
+    <t>4000: cost=7.23, score=108.45, total_score=8060375.62</t>
+  </si>
+  <si>
+    <t>4500: cost=7.63, score=76.3, total_score=8114254.19</t>
+  </si>
+  <si>
+    <t>5000: cost=6.13, score=36.78, total_score=8149101.76</t>
+  </si>
+  <si>
+    <t>5500: cost=7.67, score=30.68, total_score=8170213.67</t>
+  </si>
+  <si>
+    <t>6000: cost=7.03, score=14.06, total_score=8183006.7</t>
+  </si>
+  <si>
+    <t>6500: cost=9.43, score=9.43, total_score=8190395.08</t>
+  </si>
+  <si>
+    <t>10: cost=6.53, score=33035.27, total_score=331857.59</t>
+  </si>
+  <si>
+    <t>100: cost=7.0, score=12775.0, total_score=1885732.16</t>
+  </si>
+  <si>
+    <t>500: cost=13.57, score=7572.06, total_score=4519291.71</t>
+  </si>
+  <si>
+    <t>1000: cost=7.97, score=2120.02, total_score=5878016.83</t>
+  </si>
+  <si>
+    <t>1500: cost=7.2, score=1137.6, total_score=6676123.51</t>
+  </si>
+  <si>
+    <t>2000: cost=10.47, score=1005.12, total_score=7176895.75</t>
+  </si>
+  <si>
+    <t>2500: cost=10.93, score=655.8, total_score=7503553.5</t>
+  </si>
+  <si>
+    <t>3000: cost=5.67, score=209.79, total_score=7712257.79</t>
+  </si>
+  <si>
+    <t>3500: cost=11.27, score=270.48, total_score=7846547.3</t>
+  </si>
+  <si>
+    <t>4000: cost=7.2, score=108.0, total_score=7938722.6</t>
+  </si>
+  <si>
+    <t>4500: cost=10.83, score=108.3, total_score=8000824.63</t>
+  </si>
+  <si>
+    <t>5000: cost=8.8, score=52.8, total_score=8042639.43</t>
+  </si>
+  <si>
+    <t>5500: cost=9.17, score=36.68, total_score=8068500.72</t>
+  </si>
+  <si>
+    <t>6000: cost=11.33, score=22.66, total_score=8084658.49</t>
+  </si>
+  <si>
+    <t>6500: cost=5.83, score=5.83, total_score=8093681.58</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">score = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>7.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>; total_score = 8191229.84, total_count = 1137532</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">score = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>7.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>; total_score = 8094579.9, total_count = 1137532</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="181" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2165,7 +2178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2178,13 +2191,10 @@
     <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1">
@@ -2202,7 +2212,7 @@
     <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2211,13 +2221,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2574,7 +2584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY59"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -2584,12 +2594,12 @@
       <selection pane="bottomRight" activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="50" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2744,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -2899,7 +2909,7 @@
         <v>11.53</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -3054,7 +3064,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -3209,7 +3219,7 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
@@ -3364,7 +3374,7 @@
         <v>8.3699999999999992</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -3519,7 +3529,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -3674,7 +3684,7 @@
         <v>10.43</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -3829,7 +3839,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
@@ -3984,7 +3994,7 @@
         <v>8.43</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -4139,7 +4149,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -4294,7 +4304,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
@@ -4328,97 +4338,97 @@
       <c r="K12" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="4">
         <v>7.83</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="4">
         <v>8.83</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="4">
         <v>8.57</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="4">
         <v>7.7</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="4">
         <v>4.7</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="4">
         <v>4.67</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="4">
         <v>4.63</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="4">
         <v>4.7699999999999996</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="4">
         <v>4.8</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="4">
         <v>9.3699999999999992</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="4">
         <v>9.17</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="4">
         <v>9.93</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="Z12" s="4">
         <v>8.4</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AA12" s="4">
         <v>5.3</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AB12" s="4">
         <v>5.47</v>
       </c>
-      <c r="AC12" s="6">
+      <c r="AC12" s="4">
         <v>5.7</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AD12" s="4">
         <v>5.5</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AE12" s="4">
         <v>5.67</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AF12" s="4">
         <v>10.6</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AG12" s="4">
         <v>9.67</v>
       </c>
-      <c r="AH12" s="6">
+      <c r="AH12" s="4">
         <v>9.9</v>
       </c>
-      <c r="AI12" s="6">
+      <c r="AI12" s="4">
         <v>8.4700000000000006</v>
       </c>
-      <c r="AJ12" s="6">
+      <c r="AJ12" s="4">
         <v>8.33</v>
       </c>
-      <c r="AK12" s="6">
+      <c r="AK12" s="4">
         <v>5.33</v>
       </c>
-      <c r="AL12" s="6">
+      <c r="AL12" s="4">
         <v>5.63</v>
       </c>
-      <c r="AM12" s="6">
+      <c r="AM12" s="4">
         <v>5.63</v>
       </c>
-      <c r="AN12" s="6">
+      <c r="AN12" s="4">
         <v>5.33</v>
       </c>
-      <c r="AO12" s="6">
+      <c r="AO12" s="4">
         <v>5.53</v>
       </c>
-      <c r="AP12" s="12">
+      <c r="AP12" s="11">
         <v>6.33</v>
       </c>
       <c r="AQ12" s="5">
@@ -4449,7 +4459,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -4573,7 +4583,7 @@
       <c r="AO13" s="4">
         <v>5.43</v>
       </c>
-      <c r="AP13" s="12">
+      <c r="AP13" s="11">
         <v>6.03</v>
       </c>
       <c r="AQ13" s="5">
@@ -4604,7 +4614,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -4728,7 +4738,7 @@
       <c r="AO14" s="4">
         <v>5.07</v>
       </c>
-      <c r="AP14" s="12">
+      <c r="AP14" s="11">
         <v>5.7</v>
       </c>
       <c r="AQ14" s="5">
@@ -4759,7 +4769,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -4883,7 +4893,7 @@
       <c r="AO15" s="4">
         <v>4.87</v>
       </c>
-      <c r="AP15" s="12">
+      <c r="AP15" s="11">
         <v>5.63</v>
       </c>
       <c r="AQ15" s="5">
@@ -4914,7 +4924,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -5038,7 +5048,7 @@
       <c r="AO16" s="4">
         <v>5.13</v>
       </c>
-      <c r="AP16" s="12">
+      <c r="AP16" s="11">
         <v>5.4</v>
       </c>
       <c r="AQ16" s="5">
@@ -5069,7 +5079,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -5193,7 +5203,7 @@
       <c r="AO17" s="4">
         <v>5.93</v>
       </c>
-      <c r="AP17" s="12">
+      <c r="AP17" s="11">
         <v>6.4</v>
       </c>
       <c r="AQ17" s="5">
@@ -5224,7 +5234,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -5348,7 +5358,7 @@
       <c r="AO18" s="4">
         <v>5.17</v>
       </c>
-      <c r="AP18" s="12">
+      <c r="AP18" s="11">
         <v>6.17</v>
       </c>
       <c r="AQ18" s="5">
@@ -5379,7 +5389,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -5503,7 +5513,7 @@
       <c r="AO19" s="4">
         <v>6.43</v>
       </c>
-      <c r="AP19" s="12">
+      <c r="AP19" s="11">
         <v>6.07</v>
       </c>
       <c r="AQ19" s="5">
@@ -5534,7 +5544,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
@@ -5658,7 +5668,7 @@
       <c r="AO20" s="4">
         <v>9.9</v>
       </c>
-      <c r="AP20" s="12">
+      <c r="AP20" s="11">
         <v>6.63</v>
       </c>
       <c r="AQ20" s="5">
@@ -5689,7 +5699,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -5813,7 +5823,7 @@
       <c r="AO21" s="4">
         <v>8.6</v>
       </c>
-      <c r="AP21" s="12">
+      <c r="AP21" s="11">
         <v>6.5</v>
       </c>
       <c r="AQ21" s="5">
@@ -5844,7 +5854,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -5968,7 +5978,7 @@
       <c r="AO22" s="4">
         <v>4.97</v>
       </c>
-      <c r="AP22" s="12">
+      <c r="AP22" s="11">
         <v>5.57</v>
       </c>
       <c r="AQ22" s="5">
@@ -5999,7 +6009,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -6123,7 +6133,7 @@
       <c r="AO23" s="4">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AP23" s="12">
+      <c r="AP23" s="11">
         <v>5.37</v>
       </c>
       <c r="AQ23" s="5">
@@ -6154,7 +6164,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -6278,7 +6288,7 @@
       <c r="AO24" s="4">
         <v>4.5</v>
       </c>
-      <c r="AP24" s="12">
+      <c r="AP24" s="11">
         <v>5.2</v>
       </c>
       <c r="AQ24" s="5">
@@ -6309,7 +6319,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
@@ -6433,7 +6443,7 @@
       <c r="AO25" s="4">
         <v>4.5</v>
       </c>
-      <c r="AP25" s="12">
+      <c r="AP25" s="11">
         <v>5.2</v>
       </c>
       <c r="AQ25" s="5">
@@ -6464,7 +6474,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -6588,7 +6598,7 @@
       <c r="AO26" s="4">
         <v>4.83</v>
       </c>
-      <c r="AP26" s="12">
+      <c r="AP26" s="11">
         <v>5.07</v>
       </c>
       <c r="AQ26" s="5">
@@ -6619,7 +6629,7 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
@@ -6743,7 +6753,7 @@
       <c r="AO27" s="4">
         <v>4.87</v>
       </c>
-      <c r="AP27" s="12">
+      <c r="AP27" s="11">
         <v>5.73</v>
       </c>
       <c r="AQ27" s="5">
@@ -6774,7 +6784,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -6898,7 +6908,7 @@
       <c r="AO28" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AP28" s="12">
+      <c r="AP28" s="11">
         <v>5.2</v>
       </c>
       <c r="AQ28" s="5">
@@ -6929,7 +6939,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
@@ -7053,7 +7063,7 @@
       <c r="AO29" s="4">
         <v>5.57</v>
       </c>
-      <c r="AP29" s="12">
+      <c r="AP29" s="11">
         <v>5.53</v>
       </c>
       <c r="AQ29" s="5">
@@ -7084,7 +7094,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
@@ -7208,7 +7218,7 @@
       <c r="AO30" s="4">
         <v>5.8</v>
       </c>
-      <c r="AP30" s="12">
+      <c r="AP30" s="11">
         <v>5.93</v>
       </c>
       <c r="AQ30" s="5">
@@ -7239,7 +7249,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
@@ -7363,7 +7373,7 @@
       <c r="AO31" s="4">
         <v>8.17</v>
       </c>
-      <c r="AP31" s="12">
+      <c r="AP31" s="11">
         <v>6.87</v>
       </c>
       <c r="AQ31" s="5">
@@ -7394,7 +7404,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
@@ -7518,7 +7528,7 @@
       <c r="AO32" s="4">
         <v>5.5</v>
       </c>
-      <c r="AP32" s="12">
+      <c r="AP32" s="11">
         <v>6.4</v>
       </c>
       <c r="AQ32" s="5">
@@ -7549,7 +7559,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -7673,7 +7683,7 @@
       <c r="AO33" s="4">
         <v>5.13</v>
       </c>
-      <c r="AP33" s="12">
+      <c r="AP33" s="11">
         <v>6.07</v>
       </c>
       <c r="AQ33" s="5">
@@ -7704,7 +7714,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
@@ -7828,7 +7838,7 @@
       <c r="AO34" s="4">
         <v>5.23</v>
       </c>
-      <c r="AP34" s="12">
+      <c r="AP34" s="11">
         <v>5.9</v>
       </c>
       <c r="AQ34" s="5">
@@ -7859,7 +7869,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
@@ -7983,7 +7993,7 @@
       <c r="AO35" s="4">
         <v>5.23</v>
       </c>
-      <c r="AP35" s="12">
+      <c r="AP35" s="11">
         <v>5.2</v>
       </c>
       <c r="AQ35" s="5">
@@ -8014,7 +8024,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
@@ -8138,7 +8148,7 @@
       <c r="AO36" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AP36" s="12">
+      <c r="AP36" s="11">
         <v>5.83</v>
       </c>
       <c r="AQ36" s="5">
@@ -8169,7 +8179,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -8293,7 +8303,7 @@
       <c r="AO37" s="4">
         <v>4.57</v>
       </c>
-      <c r="AP37" s="12">
+      <c r="AP37" s="11">
         <v>5.07</v>
       </c>
       <c r="AQ37" s="5">
@@ -8324,7 +8334,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>27</v>
       </c>
@@ -8448,7 +8458,7 @@
       <c r="AO38" s="4">
         <v>4.43</v>
       </c>
-      <c r="AP38" s="12">
+      <c r="AP38" s="11">
         <v>4.7</v>
       </c>
       <c r="AQ38" s="5">
@@ -8479,7 +8489,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
@@ -8603,7 +8613,7 @@
       <c r="AO39" s="4">
         <v>5.73</v>
       </c>
-      <c r="AP39" s="12">
+      <c r="AP39" s="11">
         <v>5.87</v>
       </c>
       <c r="AQ39" s="5">
@@ -8634,7 +8644,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
@@ -8758,7 +8768,7 @@
       <c r="AO40" s="4">
         <v>5.8</v>
       </c>
-      <c r="AP40" s="12">
+      <c r="AP40" s="11">
         <v>5.87</v>
       </c>
       <c r="AQ40" s="5">
@@ -8789,7 +8799,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -8913,7 +8923,7 @@
       <c r="AO41" s="4">
         <v>6.27</v>
       </c>
-      <c r="AP41" s="12">
+      <c r="AP41" s="11">
         <v>6.3</v>
       </c>
       <c r="AQ41" s="5">
@@ -8944,7 +8954,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -8978,97 +8988,97 @@
       <c r="K42" s="5">
         <v>8.73</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="11">
         <v>6.87</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="11">
         <v>7.3</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="11">
         <v>6.97</v>
       </c>
-      <c r="O42" s="12">
+      <c r="O42" s="11">
         <v>7.43</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P42" s="11">
         <v>7.3</v>
       </c>
-      <c r="Q42" s="12">
+      <c r="Q42" s="11">
         <v>6.3</v>
       </c>
-      <c r="R42" s="12">
+      <c r="R42" s="11">
         <v>6.2</v>
       </c>
-      <c r="S42" s="12">
+      <c r="S42" s="11">
         <v>4.7699999999999996</v>
       </c>
-      <c r="T42" s="12">
+      <c r="T42" s="11">
         <v>5.03</v>
       </c>
-      <c r="U42" s="12">
+      <c r="U42" s="11">
         <v>5.23</v>
       </c>
-      <c r="V42" s="12">
+      <c r="V42" s="11">
         <v>6.43</v>
       </c>
-      <c r="W42" s="12">
+      <c r="W42" s="11">
         <v>6.5</v>
       </c>
-      <c r="X42" s="12">
+      <c r="X42" s="11">
         <v>5.53</v>
       </c>
-      <c r="Y42" s="12">
+      <c r="Y42" s="11">
         <v>7.1</v>
       </c>
-      <c r="Z42" s="12">
+      <c r="Z42" s="11">
         <v>6.53</v>
       </c>
-      <c r="AA42" s="12">
+      <c r="AA42" s="11">
         <v>5.33</v>
       </c>
-      <c r="AB42" s="12">
+      <c r="AB42" s="11">
         <v>5.33</v>
       </c>
-      <c r="AC42" s="12">
+      <c r="AC42" s="11">
         <v>4.53</v>
       </c>
-      <c r="AD42" s="12">
+      <c r="AD42" s="11">
         <v>5.07</v>
       </c>
-      <c r="AE42" s="12">
+      <c r="AE42" s="11">
         <v>5.3</v>
       </c>
-      <c r="AF42" s="12">
+      <c r="AF42" s="11">
         <v>6.73</v>
       </c>
-      <c r="AG42" s="12">
+      <c r="AG42" s="11">
         <v>6.63</v>
       </c>
-      <c r="AH42" s="12">
+      <c r="AH42" s="11">
         <v>6.7</v>
       </c>
-      <c r="AI42" s="12">
+      <c r="AI42" s="11">
         <v>5.93</v>
       </c>
-      <c r="AJ42" s="12">
+      <c r="AJ42" s="11">
         <v>6.83</v>
       </c>
-      <c r="AK42" s="12">
+      <c r="AK42" s="11">
         <v>5.83</v>
       </c>
-      <c r="AL42" s="12">
+      <c r="AL42" s="11">
         <v>5.2</v>
       </c>
-      <c r="AM42" s="12">
+      <c r="AM42" s="11">
         <v>4.7</v>
       </c>
-      <c r="AN42" s="12">
+      <c r="AN42" s="11">
         <v>5</v>
       </c>
-      <c r="AO42" s="12">
+      <c r="AO42" s="11">
         <v>5.43</v>
       </c>
-      <c r="AP42" s="12">
+      <c r="AP42" s="11">
         <v>6.43</v>
       </c>
       <c r="AQ42" s="5">
@@ -9099,7 +9109,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="43" spans="1:51">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>32</v>
       </c>
@@ -9254,7 +9264,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="44" spans="1:51">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>33</v>
       </c>
@@ -9409,7 +9419,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="45" spans="1:51">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>34</v>
       </c>
@@ -9564,7 +9574,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="46" spans="1:51">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>35</v>
       </c>
@@ -9719,7 +9729,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="47" spans="1:51">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>36</v>
       </c>
@@ -9874,7 +9884,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="48" spans="1:51">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>37</v>
       </c>
@@ -10029,7 +10039,7 @@
         <v>9.67</v>
       </c>
     </row>
-    <row r="49" spans="1:51">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>38</v>
       </c>
@@ -10184,7 +10194,7 @@
         <v>10.17</v>
       </c>
     </row>
-    <row r="50" spans="1:51">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>39</v>
       </c>
@@ -10339,7 +10349,7 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="51" spans="1:51">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -10494,222 +10504,222 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="52" spans="1:51">
-      <c r="J52" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="K52" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="14"/>
-      <c r="X52" s="14"/>
-      <c r="Y52" s="14"/>
-      <c r="Z52" s="14"/>
-      <c r="AA52" s="14"/>
-      <c r="AB52" s="14"/>
-      <c r="AC52" s="14"/>
-      <c r="AD52" s="14"/>
-      <c r="AE52" s="14"/>
-      <c r="AF52" s="14"/>
-      <c r="AG52" s="14"/>
-    </row>
-    <row r="53" spans="1:51">
-      <c r="J53" s="15">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="J52" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="13"/>
+      <c r="AB52" s="13"/>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="13"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="13"/>
+    </row>
+    <row r="53" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="J53" s="14">
         <v>0.93</v>
       </c>
-      <c r="K53" s="15">
+      <c r="K53" s="14">
         <v>0.85</v>
       </c>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="14"/>
-      <c r="Y53" s="14"/>
-      <c r="Z53" s="14"/>
-      <c r="AA53" s="14"/>
-      <c r="AB53" s="14"/>
-      <c r="AC53" s="14"/>
-      <c r="AD53" s="14"/>
-      <c r="AE53" s="14"/>
-      <c r="AF53" s="14"/>
-      <c r="AG53" s="14"/>
-    </row>
-    <row r="54" spans="1:51">
-      <c r="J54" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="K54" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="L54" s="16">
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="13"/>
+      <c r="Z53" s="13"/>
+      <c r="AA53" s="13"/>
+      <c r="AB53" s="13"/>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="13"/>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="13"/>
+    </row>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="J54" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L54" s="15">
         <f>SUM($L$12:$P$16)</f>
         <v>182.94999999999996</v>
       </c>
-      <c r="M54" s="16">
+      <c r="M54" s="15">
         <f>L54*$J$53*$K$53</f>
         <v>144.62197499999996</v>
       </c>
-      <c r="N54" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="O54" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="P54" s="16">
+      <c r="N54" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="O54" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="P54" s="15">
         <f>SUM($L$17:$P$21)</f>
         <v>148.58000000000001</v>
       </c>
-      <c r="Q54" s="16">
+      <c r="Q54" s="15">
         <f>P54*$K$53</f>
         <v>126.29300000000001</v>
       </c>
-      <c r="R54" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="S54" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="T54" s="16">
+      <c r="R54" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="S54" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="T54" s="15">
         <f>SUM($L$22:$P$26)</f>
         <v>189.57</v>
       </c>
-      <c r="U54" s="16">
+      <c r="U54" s="15">
         <f>T54*$J$53*$K$53</f>
         <v>149.855085</v>
       </c>
-      <c r="V54" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="W54" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="X54" s="16">
+      <c r="V54" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="W54" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="X54" s="15">
         <f>SUM($L$27:$P$31)</f>
         <v>148.64000000000001</v>
       </c>
-      <c r="Y54" s="16">
+      <c r="Y54" s="15">
         <f>X54*$K$53</f>
         <v>126.34400000000001</v>
       </c>
-      <c r="Z54" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA54" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB54" s="16">
+      <c r="Z54" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA54" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB54" s="15">
         <f>SUM($L$32:$P$36)</f>
         <v>203.82999999999998</v>
       </c>
-      <c r="AC54" s="16">
+      <c r="AC54" s="15">
         <f>AB54*$J$53*$K$53</f>
         <v>161.12761499999999</v>
       </c>
-      <c r="AD54" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE54" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF54" s="16">
+      <c r="AD54" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE54" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF54" s="15">
         <f>SUM($L$37:$P$41)</f>
         <v>162.37999999999997</v>
       </c>
-      <c r="AG54" s="16">
+      <c r="AG54" s="15">
         <f>AF54*$K$53</f>
         <v>138.02299999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:51">
-      <c r="J55" s="14"/>
-      <c r="K55" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="L55" s="16">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="J55" s="13"/>
+      <c r="K55" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="L55" s="15">
         <f>SUM($Q$12:$U$16)</f>
         <v>111.07000000000001</v>
       </c>
-      <c r="M55" s="16">
+      <c r="M55" s="15">
         <f>L55*$J$53</f>
         <v>103.29510000000002</v>
       </c>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="P55" s="16">
+      <c r="N55" s="15"/>
+      <c r="O55" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="P55" s="15">
         <f>SUM($Q$17:$U$21)</f>
         <v>134.15</v>
       </c>
-      <c r="Q55" s="16">
+      <c r="Q55" s="15">
         <f>P55</f>
         <v>134.15</v>
       </c>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="T55" s="16">
+      <c r="R55" s="15"/>
+      <c r="S55" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="T55" s="15">
         <f>SUM($Q$22:$U$26)</f>
         <v>122.94000000000003</v>
       </c>
-      <c r="U55" s="16">
+      <c r="U55" s="15">
         <f>T55*$J$53</f>
         <v>114.33420000000002</v>
       </c>
-      <c r="V55" s="16"/>
-      <c r="W55" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="X55" s="16">
+      <c r="V55" s="15"/>
+      <c r="W55" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="X55" s="15">
         <f>SUM($Q$27:$U$31)</f>
         <v>143.29999999999998</v>
       </c>
-      <c r="Y55" s="16">
+      <c r="Y55" s="15">
         <f>X55</f>
         <v>143.29999999999998</v>
       </c>
-      <c r="Z55" s="16"/>
-      <c r="AA55" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="AB55" s="16">
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB55" s="15">
         <f>SUM($Q$32:$U$36)</f>
         <v>139.73000000000002</v>
       </c>
-      <c r="AC55" s="16">
+      <c r="AC55" s="15">
         <f>AB55*$J$53</f>
         <v>129.94890000000004</v>
       </c>
-      <c r="AD55" s="16"/>
-      <c r="AE55" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF55" s="16">
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF55" s="15">
         <f>SUM($Q$37:$U$41)</f>
         <v>155.39000000000001</v>
       </c>
-      <c r="AG55" s="16">
+      <c r="AG55" s="15">
         <f>AF55</f>
         <v>155.39000000000001</v>
       </c>
@@ -10718,298 +10728,298 @@
         <v>7.2819000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:51">
-      <c r="J56" s="14"/>
-      <c r="K56" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="L56" s="16">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="J56" s="13"/>
+      <c r="K56" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="L56" s="15">
         <f>SUM($V$12:$Z$16)</f>
         <v>200.45999999999998</v>
       </c>
-      <c r="M56" s="16">
+      <c r="M56" s="15">
         <f>L56*$J$53*$K$53</f>
         <v>158.46362999999999</v>
       </c>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="P56" s="16">
+      <c r="N56" s="15"/>
+      <c r="O56" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="P56" s="15">
         <f>SUM($V$17:$Z$21)</f>
         <v>171.35999999999999</v>
       </c>
-      <c r="Q56" s="16">
+      <c r="Q56" s="15">
         <f>P56*$K$53</f>
         <v>145.65599999999998</v>
       </c>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="T56" s="16">
+      <c r="R56" s="15"/>
+      <c r="S56" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="T56" s="15">
         <f>SUM($V$22:$Z$26)</f>
         <v>181.14000000000001</v>
       </c>
-      <c r="U56" s="16">
+      <c r="U56" s="15">
         <f>T56*$J$53*$K$53</f>
         <v>143.19117</v>
       </c>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="X56" s="16">
+      <c r="V56" s="15"/>
+      <c r="W56" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="X56" s="15">
         <f>SUM($V$27:$Z$31)</f>
         <v>152.84000000000003</v>
       </c>
-      <c r="Y56" s="16">
+      <c r="Y56" s="15">
         <f>X56*$K$53</f>
         <v>129.91400000000002</v>
       </c>
-      <c r="Z56" s="16"/>
-      <c r="AA56" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB56" s="16">
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB56" s="15">
         <f>SUM($V$32:$Z$36)</f>
         <v>181.33999999999997</v>
       </c>
-      <c r="AC56" s="16">
+      <c r="AC56" s="15">
         <f>AB56*$J$53*$K$53</f>
         <v>143.34926999999999</v>
       </c>
-      <c r="AD56" s="16"/>
-      <c r="AE56" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="AF56" s="16">
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF56" s="15">
         <f>SUM($V$37:$Z$41)</f>
         <v>155.54999999999998</v>
       </c>
-      <c r="AG56" s="16">
+      <c r="AG56" s="15">
         <f>AF56*$K$53</f>
         <v>132.21749999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:51">
-      <c r="J57" s="14"/>
-      <c r="K57" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="L57" s="16">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="J57" s="13"/>
+      <c r="K57" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="L57" s="15">
         <f>SUM($AA$12:$AE$16)</f>
         <v>131.91</v>
       </c>
-      <c r="M57" s="16">
+      <c r="M57" s="15">
         <f>L57*$J$53</f>
         <v>122.6763</v>
       </c>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="P57" s="16">
+      <c r="N57" s="15"/>
+      <c r="O57" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="P57" s="15">
         <f>SUM($AA$17:$AE$21)</f>
         <v>148.19</v>
       </c>
-      <c r="Q57" s="16">
+      <c r="Q57" s="15">
         <f>P57</f>
         <v>148.19</v>
       </c>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="T57" s="16">
+      <c r="R57" s="15"/>
+      <c r="S57" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="T57" s="15">
         <f>SUM($AA$22:$AE$26)</f>
         <v>120.71999999999998</v>
       </c>
-      <c r="U57" s="16">
+      <c r="U57" s="15">
         <f>T57*$J$53</f>
         <v>112.2696</v>
       </c>
-      <c r="V57" s="16"/>
-      <c r="W57" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="X57" s="16">
+      <c r="V57" s="15"/>
+      <c r="W57" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="X57" s="15">
         <f>SUM($AA$27:$AE$31)</f>
         <v>132.38999999999999</v>
       </c>
-      <c r="Y57" s="16">
+      <c r="Y57" s="15">
         <f>X57</f>
         <v>132.38999999999999</v>
       </c>
-      <c r="Z57" s="16"/>
-      <c r="AA57" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB57" s="16">
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB57" s="15">
         <f>SUM($AA$32:$AE$36)</f>
         <v>117.50999999999999</v>
       </c>
-      <c r="AC57" s="16">
+      <c r="AC57" s="15">
         <f>AB57*$J$53</f>
         <v>109.2843</v>
       </c>
-      <c r="AD57" s="16"/>
-      <c r="AE57" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF57" s="16">
+      <c r="AD57" s="15"/>
+      <c r="AE57" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF57" s="15">
         <f>SUM($AA$37:$AE$41)</f>
         <v>142.61999999999998</v>
       </c>
-      <c r="AG57" s="16">
+      <c r="AG57" s="15">
         <f>AF57</f>
         <v>142.61999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:51">
-      <c r="J58" s="14"/>
-      <c r="K58" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="L58" s="16">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="J58" s="13"/>
+      <c r="K58" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="L58" s="15">
         <f>SUM($AF$12:$AJ$16)</f>
         <v>222.88</v>
       </c>
-      <c r="M58" s="16">
+      <c r="M58" s="15">
         <f>L58*$J$53*$K$53</f>
         <v>176.18664000000001</v>
       </c>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="P58" s="16">
+      <c r="N58" s="15"/>
+      <c r="O58" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="P58" s="15">
         <f>SUM($AF$17:$AJ$21)</f>
         <v>141.52999999999997</v>
       </c>
-      <c r="Q58" s="16">
+      <c r="Q58" s="15">
         <f>P58*$K$53</f>
         <v>120.30049999999997</v>
       </c>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="T58" s="16">
+      <c r="R58" s="15"/>
+      <c r="S58" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="T58" s="15">
         <f>SUM($AF$22:$AJ$26)</f>
         <v>201.88</v>
       </c>
-      <c r="U58" s="16">
+      <c r="U58" s="15">
         <f>T58*$J$53*$K$53</f>
         <v>159.58614</v>
       </c>
-      <c r="V58" s="16"/>
-      <c r="W58" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="X58" s="16">
+      <c r="V58" s="15"/>
+      <c r="W58" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="X58" s="15">
         <f>SUM($AF$27:$AJ$31)</f>
         <v>158.86000000000001</v>
       </c>
-      <c r="Y58" s="16">
+      <c r="Y58" s="15">
         <f>X58*$K$53</f>
         <v>135.03100000000001</v>
       </c>
-      <c r="Z58" s="16"/>
-      <c r="AA58" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB58" s="16">
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB58" s="15">
         <f>SUM($AF$32:$AJ$36)</f>
         <v>176.35</v>
       </c>
-      <c r="AC58" s="16">
+      <c r="AC58" s="15">
         <f>AB58*$J$53*$K$53</f>
         <v>139.404675</v>
       </c>
-      <c r="AD58" s="16"/>
-      <c r="AE58" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="AF58" s="16">
+      <c r="AD58" s="15"/>
+      <c r="AE58" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF58" s="15">
         <f>SUM($AF$37:$AJ$41)</f>
         <v>152.88999999999999</v>
       </c>
-      <c r="AG58" s="16">
+      <c r="AG58" s="15">
         <f>AF58*$K$53</f>
         <v>129.95649999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:51">
-      <c r="J59" s="14"/>
-      <c r="K59" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="L59" s="16">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="J59" s="13"/>
+      <c r="K59" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="L59" s="15">
         <f>SUM($AK$12:$AO$16)</f>
         <v>126.46000000000002</v>
       </c>
-      <c r="M59" s="16">
+      <c r="M59" s="15">
         <f>L59*$J$53</f>
         <v>117.60780000000003</v>
       </c>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="P59" s="16">
+      <c r="N59" s="15"/>
+      <c r="O59" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="P59" s="15">
         <f>SUM($AK$17:$AO$21)</f>
         <v>171.80999999999997</v>
       </c>
-      <c r="Q59" s="16">
+      <c r="Q59" s="15">
         <f>P59</f>
         <v>171.80999999999997</v>
       </c>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="T59" s="16">
+      <c r="R59" s="15"/>
+      <c r="S59" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="T59" s="15">
         <f>SUM($AK$22:$AO$26)</f>
         <v>112.68</v>
       </c>
-      <c r="U59" s="16">
+      <c r="U59" s="15">
         <f>T59*$J$53</f>
         <v>104.79240000000001</v>
       </c>
-      <c r="V59" s="16"/>
-      <c r="W59" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="X59" s="16">
+      <c r="V59" s="15"/>
+      <c r="W59" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="X59" s="15">
         <f>SUM($AK$27:$AO$31)</f>
         <v>143.5</v>
       </c>
-      <c r="Y59" s="16">
+      <c r="Y59" s="15">
         <f>X59</f>
         <v>143.5</v>
       </c>
-      <c r="Z59" s="16"/>
-      <c r="AA59" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB59" s="16">
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB59" s="15">
         <f>SUM($AK$32:$AO$36)</f>
         <v>128.29000000000002</v>
       </c>
-      <c r="AC59" s="16">
+      <c r="AC59" s="15">
         <f>AB59*$J$53</f>
         <v>119.30970000000002</v>
       </c>
-      <c r="AD59" s="16"/>
-      <c r="AE59" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF59" s="16">
+      <c r="AD59" s="15"/>
+      <c r="AE59" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF59" s="15">
         <f>SUM($AK$37:$AO$41)</f>
         <v>132.5</v>
       </c>
-      <c r="AG59" s="16">
+      <c r="AG59" s="15">
         <f>AF59</f>
         <v>132.5</v>
       </c>
@@ -11021,435 +11031,437 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="4" width="61.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10" t="s">
+      <c r="C10" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9" t="s">
+      <c r="C12" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9" t="s">
+      <c r="C14" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9" t="s">
+      <c r="C16" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9" t="s">
+      <c r="C18" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="9" t="s">
+      <c r="C20" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="9" t="s">
+      <c r="C22" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9" t="s">
+      <c r="C24" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9" t="s">
+      <c r="C26" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="7"/>
-      <c r="B26" s="9" t="s">
+      <c r="C28" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7"/>
-      <c r="B28" s="9" t="s">
+      <c r="C30" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7"/>
-      <c r="B29" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="9" t="s">
+      <c r="C32" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="7"/>
-      <c r="B31" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="7"/>
-      <c r="B32" s="9" t="s">
+      <c r="C34" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="7"/>
-      <c r="B33" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="7"/>
-      <c r="B34" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="7"/>
-      <c r="B35" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="C35" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
@@ -11458,7 +11470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY59"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -11468,12 +11480,12 @@
       <selection pane="bottomRight" activeCell="AF59" sqref="AF59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="50" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11628,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -11783,7 +11795,7 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -11938,7 +11950,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -12093,7 +12105,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
@@ -12248,7 +12260,7 @@
         <v>8.0299999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -12403,7 +12415,7 @@
         <v>9.27</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -12558,7 +12570,7 @@
         <v>10.43</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -12713,7 +12725,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
@@ -12868,7 +12880,7 @@
         <v>8.43</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -13023,7 +13035,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -13178,7 +13190,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
@@ -13212,97 +13224,97 @@
       <c r="K12" s="5">
         <v>7.96</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="4">
         <v>6.19</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="4">
         <v>6.96</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="4">
         <v>6.98</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="4">
         <v>6.77</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="4">
         <v>6.09</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="4">
         <v>4.37</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="4">
         <v>4.34</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="4">
         <v>4.3099999999999996</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="4">
         <v>4.4400000000000004</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="4">
         <v>4.46</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="4">
         <v>7.41</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="4">
         <v>7.25</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="4">
         <v>7.85</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12" s="4">
         <v>6.56</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="Z12" s="4">
         <v>6.64</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AA12" s="4">
         <v>4.93</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AB12" s="4">
         <v>5.09</v>
       </c>
-      <c r="AC12" s="6">
+      <c r="AC12" s="4">
         <v>5.3</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AD12" s="4">
         <v>5.12</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AE12" s="4">
         <v>5.27</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AF12" s="4">
         <v>8.3800000000000008</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AG12" s="4">
         <v>7.64</v>
       </c>
-      <c r="AH12" s="6">
+      <c r="AH12" s="4">
         <v>7.83</v>
       </c>
-      <c r="AI12" s="6">
+      <c r="AI12" s="4">
         <v>6.7</v>
       </c>
-      <c r="AJ12" s="6">
+      <c r="AJ12" s="4">
         <v>6.58</v>
       </c>
-      <c r="AK12" s="6">
+      <c r="AK12" s="4">
         <v>4.96</v>
       </c>
-      <c r="AL12" s="6">
+      <c r="AL12" s="4">
         <v>5.24</v>
       </c>
-      <c r="AM12" s="6">
+      <c r="AM12" s="4">
         <v>5.24</v>
       </c>
-      <c r="AN12" s="6">
+      <c r="AN12" s="4">
         <v>4.96</v>
       </c>
-      <c r="AO12" s="6">
+      <c r="AO12" s="4">
         <v>5.14</v>
       </c>
-      <c r="AP12" s="12">
+      <c r="AP12" s="11">
         <v>5.96</v>
       </c>
       <c r="AQ12" s="5">
@@ -13333,7 +13345,7 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -13457,7 +13469,7 @@
       <c r="AO13" s="4">
         <v>5.05</v>
       </c>
-      <c r="AP13" s="12">
+      <c r="AP13" s="11">
         <v>5.68</v>
       </c>
       <c r="AQ13" s="5">
@@ -13488,7 +13500,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -13612,7 +13624,7 @@
       <c r="AO14" s="4">
         <v>4.72</v>
       </c>
-      <c r="AP14" s="12">
+      <c r="AP14" s="11">
         <v>5.37</v>
       </c>
       <c r="AQ14" s="5">
@@ -13643,7 +13655,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -13767,7 +13779,7 @@
       <c r="AO15" s="4">
         <v>4.53</v>
       </c>
-      <c r="AP15" s="12">
+      <c r="AP15" s="11">
         <v>5.31</v>
       </c>
       <c r="AQ15" s="5">
@@ -13798,7 +13810,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -13922,7 +13934,7 @@
       <c r="AO16" s="4">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AP16" s="12">
+      <c r="AP16" s="11">
         <v>5.09</v>
       </c>
       <c r="AQ16" s="5">
@@ -13953,7 +13965,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -14077,7 +14089,7 @@
       <c r="AO17" s="4">
         <v>5.93</v>
       </c>
-      <c r="AP17" s="12">
+      <c r="AP17" s="11">
         <v>5.59</v>
       </c>
       <c r="AQ17" s="5">
@@ -14108,7 +14120,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -14232,7 +14244,7 @@
       <c r="AO18" s="4">
         <v>5.17</v>
       </c>
-      <c r="AP18" s="12">
+      <c r="AP18" s="11">
         <v>5.59</v>
       </c>
       <c r="AQ18" s="5">
@@ -14263,7 +14275,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -14387,7 +14399,7 @@
       <c r="AO19" s="4">
         <v>6.43</v>
       </c>
-      <c r="AP19" s="12">
+      <c r="AP19" s="11">
         <v>5.62</v>
       </c>
       <c r="AQ19" s="5">
@@ -14418,7 +14430,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
@@ -14542,7 +14554,7 @@
       <c r="AO20" s="4">
         <v>9.9</v>
       </c>
-      <c r="AP20" s="12">
+      <c r="AP20" s="11">
         <v>5.79</v>
       </c>
       <c r="AQ20" s="5">
@@ -14573,7 +14585,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -14697,7 +14709,7 @@
       <c r="AO21" s="4">
         <v>8.6</v>
       </c>
-      <c r="AP21" s="12">
+      <c r="AP21" s="11">
         <v>5.79</v>
       </c>
       <c r="AQ21" s="5">
@@ -14728,7 +14740,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -14852,7 +14864,7 @@
       <c r="AO22" s="4">
         <v>4.62</v>
       </c>
-      <c r="AP22" s="12">
+      <c r="AP22" s="11">
         <v>5.25</v>
       </c>
       <c r="AQ22" s="5">
@@ -14883,7 +14895,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -15007,7 +15019,7 @@
       <c r="AO23" s="4">
         <v>4.4400000000000004</v>
       </c>
-      <c r="AP23" s="12">
+      <c r="AP23" s="11">
         <v>5.0599999999999996</v>
       </c>
       <c r="AQ23" s="5">
@@ -15038,7 +15050,7 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -15162,7 +15174,7 @@
       <c r="AO24" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="AP24" s="12">
+      <c r="AP24" s="11">
         <v>4.91</v>
       </c>
       <c r="AQ24" s="5">
@@ -15193,7 +15205,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
@@ -15317,7 +15329,7 @@
       <c r="AO25" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="AP25" s="12">
+      <c r="AP25" s="11">
         <v>4.91</v>
       </c>
       <c r="AQ25" s="5">
@@ -15348,7 +15360,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -15472,7 +15484,7 @@
       <c r="AO26" s="4">
         <v>4.49</v>
       </c>
-      <c r="AP26" s="12">
+      <c r="AP26" s="11">
         <v>4.79</v>
       </c>
       <c r="AQ26" s="5">
@@ -15503,7 +15515,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
@@ -15627,7 +15639,7 @@
       <c r="AO27" s="4">
         <v>4.87</v>
       </c>
-      <c r="AP27" s="12">
+      <c r="AP27" s="11">
         <v>5.73</v>
       </c>
       <c r="AQ27" s="5">
@@ -15658,7 +15670,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -15782,7 +15794,7 @@
       <c r="AO28" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AP28" s="12">
+      <c r="AP28" s="11">
         <v>5.2</v>
       </c>
       <c r="AQ28" s="5">
@@ -15813,7 +15825,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
@@ -15937,7 +15949,7 @@
       <c r="AO29" s="4">
         <v>5.57</v>
       </c>
-      <c r="AP29" s="12">
+      <c r="AP29" s="11">
         <v>5.53</v>
       </c>
       <c r="AQ29" s="5">
@@ -15968,7 +15980,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
@@ -16092,7 +16104,7 @@
       <c r="AO30" s="4">
         <v>5.8</v>
       </c>
-      <c r="AP30" s="12">
+      <c r="AP30" s="11">
         <v>5.93</v>
       </c>
       <c r="AQ30" s="5">
@@ -16123,7 +16135,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
@@ -16247,7 +16259,7 @@
       <c r="AO31" s="4">
         <v>8.17</v>
       </c>
-      <c r="AP31" s="12">
+      <c r="AP31" s="11">
         <v>5.99</v>
       </c>
       <c r="AQ31" s="5">
@@ -16278,7 +16290,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
@@ -16402,7 +16414,7 @@
       <c r="AO32" s="4">
         <v>5.12</v>
       </c>
-      <c r="AP32" s="12">
+      <c r="AP32" s="11">
         <v>6.02</v>
       </c>
       <c r="AQ32" s="5">
@@ -16433,7 +16445,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -16557,7 +16569,7 @@
       <c r="AO33" s="4">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AP33" s="12">
+      <c r="AP33" s="11">
         <v>5.24</v>
       </c>
       <c r="AQ33" s="5">
@@ -16588,7 +16600,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
@@ -16712,7 +16724,7 @@
       <c r="AO34" s="4">
         <v>4.8600000000000003</v>
       </c>
-      <c r="AP34" s="12">
+      <c r="AP34" s="11">
         <v>4.9000000000000004</v>
       </c>
       <c r="AQ34" s="5">
@@ -16743,7 +16755,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
@@ -16867,7 +16879,7 @@
       <c r="AO35" s="4">
         <v>4.8600000000000003</v>
       </c>
-      <c r="AP35" s="12">
+      <c r="AP35" s="11">
         <v>4.91</v>
       </c>
       <c r="AQ35" s="5">
@@ -16898,7 +16910,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
@@ -17022,7 +17034,7 @@
       <c r="AO36" s="4">
         <v>4.5599999999999996</v>
       </c>
-      <c r="AP36" s="12">
+      <c r="AP36" s="11">
         <v>5.49</v>
       </c>
       <c r="AQ36" s="5">
@@ -17053,7 +17065,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -17177,7 +17189,7 @@
       <c r="AO37" s="4">
         <v>4.57</v>
       </c>
-      <c r="AP37" s="12">
+      <c r="AP37" s="11">
         <v>5.07</v>
       </c>
       <c r="AQ37" s="5">
@@ -17208,7 +17220,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>27</v>
       </c>
@@ -17332,7 +17344,7 @@
       <c r="AO38" s="4">
         <v>4.43</v>
       </c>
-      <c r="AP38" s="12">
+      <c r="AP38" s="11">
         <v>4.7</v>
       </c>
       <c r="AQ38" s="5">
@@ -17363,7 +17375,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
@@ -17487,7 +17499,7 @@
       <c r="AO39" s="4">
         <v>5.73</v>
       </c>
-      <c r="AP39" s="12">
+      <c r="AP39" s="11">
         <v>5.85</v>
       </c>
       <c r="AQ39" s="5">
@@ -17518,7 +17530,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
@@ -17642,7 +17654,7 @@
       <c r="AO40" s="4">
         <v>5.8</v>
       </c>
-      <c r="AP40" s="12">
+      <c r="AP40" s="11">
         <v>5.79</v>
       </c>
       <c r="AQ40" s="5">
@@ -17673,7 +17685,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -17797,7 +17809,7 @@
       <c r="AO41" s="4">
         <v>6.27</v>
       </c>
-      <c r="AP41" s="12">
+      <c r="AP41" s="11">
         <v>5.79</v>
       </c>
       <c r="AQ41" s="5">
@@ -17828,7 +17840,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -17862,97 +17874,97 @@
       <c r="K42" s="5">
         <v>8.73</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="11">
         <v>5.99</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="11">
         <v>6</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="11">
         <v>5.72</v>
       </c>
-      <c r="O42" s="12">
+      <c r="O42" s="11">
         <v>6.47</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P42" s="11">
         <v>6.36</v>
       </c>
-      <c r="Q42" s="12">
+      <c r="Q42" s="11">
         <v>5.93</v>
       </c>
-      <c r="R42" s="12">
+      <c r="R42" s="11">
         <v>5.84</v>
       </c>
-      <c r="S42" s="12">
+      <c r="S42" s="11">
         <v>4.7699999999999996</v>
       </c>
-      <c r="T42" s="12">
+      <c r="T42" s="11">
         <v>5.03</v>
       </c>
-      <c r="U42" s="12">
+      <c r="U42" s="11">
         <v>5.23</v>
       </c>
-      <c r="V42" s="12">
+      <c r="V42" s="11">
         <v>5.29</v>
       </c>
-      <c r="W42" s="12">
+      <c r="W42" s="11">
         <v>5.35</v>
       </c>
-      <c r="X42" s="12">
+      <c r="X42" s="11">
         <v>4.58</v>
       </c>
-      <c r="Y42" s="12">
+      <c r="Y42" s="11">
         <v>5.82</v>
       </c>
-      <c r="Z42" s="12">
+      <c r="Z42" s="11">
         <v>5.7</v>
       </c>
-      <c r="AA42" s="12">
+      <c r="AA42" s="11">
         <v>5.03</v>
       </c>
-      <c r="AB42" s="12">
+      <c r="AB42" s="11">
         <v>5.03</v>
       </c>
-      <c r="AC42" s="12">
+      <c r="AC42" s="11">
         <v>4.53</v>
       </c>
-      <c r="AD42" s="12">
+      <c r="AD42" s="11">
         <v>5.07</v>
       </c>
-      <c r="AE42" s="12">
+      <c r="AE42" s="11">
         <v>5.3</v>
       </c>
-      <c r="AF42" s="12">
+      <c r="AF42" s="11">
         <v>5.82</v>
       </c>
-      <c r="AG42" s="12">
+      <c r="AG42" s="11">
         <v>5.79</v>
       </c>
-      <c r="AH42" s="12">
+      <c r="AH42" s="11">
         <v>5.85</v>
       </c>
-      <c r="AI42" s="12">
+      <c r="AI42" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AJ42" s="12">
+      <c r="AJ42" s="11">
         <v>5.96</v>
       </c>
-      <c r="AK42" s="12">
+      <c r="AK42" s="11">
         <v>5.49</v>
       </c>
-      <c r="AL42" s="12">
+      <c r="AL42" s="11">
         <v>4.91</v>
       </c>
-      <c r="AM42" s="12">
+      <c r="AM42" s="11">
         <v>4.7</v>
       </c>
-      <c r="AN42" s="12">
+      <c r="AN42" s="11">
         <v>5</v>
       </c>
-      <c r="AO42" s="12">
+      <c r="AO42" s="11">
         <v>5.43</v>
       </c>
-      <c r="AP42" s="12">
+      <c r="AP42" s="11">
         <v>6.4</v>
       </c>
       <c r="AQ42" s="5">
@@ -17983,7 +17995,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="43" spans="1:51">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>32</v>
       </c>
@@ -18138,7 +18150,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="44" spans="1:51">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>33</v>
       </c>
@@ -18293,7 +18305,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="45" spans="1:51">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>34</v>
       </c>
@@ -18448,7 +18460,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="46" spans="1:51">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>35</v>
       </c>
@@ -18603,7 +18615,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="47" spans="1:51">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>36</v>
       </c>
@@ -18758,7 +18770,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="48" spans="1:51">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>37</v>
       </c>
@@ -18913,7 +18925,7 @@
         <v>9.67</v>
       </c>
     </row>
-    <row r="49" spans="1:51">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>38</v>
       </c>
@@ -19068,7 +19080,7 @@
         <v>10.17</v>
       </c>
     </row>
-    <row r="50" spans="1:51">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>39</v>
       </c>
@@ -19223,7 +19235,7 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="51" spans="1:51">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -19378,348 +19390,348 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="54" spans="1:51">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.15">
       <c r="J54" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="K54" t="s">
-        <v>227</v>
-      </c>
-      <c r="L54" s="17">
+        <v>195</v>
+      </c>
+      <c r="L54" s="16">
         <f>SUM($L$12:$P$16)</f>
         <v>144.61000000000001</v>
       </c>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="O54" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="P54" s="17">
+      <c r="M54" s="16"/>
+      <c r="N54" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="O54" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="P54" s="16">
         <f>SUM($L$17:$P$21)</f>
         <v>126.31</v>
       </c>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="S54" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="T54" s="17">
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="S54" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="T54" s="16">
         <f>SUM($L$22:$P$26)</f>
         <v>149.86999999999998</v>
       </c>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="W54" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="X54" s="17">
+      <c r="U54" s="16"/>
+      <c r="V54" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="W54" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="X54" s="16">
         <f>SUM($L$27:$P$31)</f>
         <v>126.36</v>
       </c>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA54" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB54" s="17">
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA54" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB54" s="16">
         <f>SUM($L$32:$P$36)</f>
         <v>161.13</v>
       </c>
-      <c r="AC54" s="17"/>
-      <c r="AD54" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE54" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF54" s="17">
+      <c r="AC54" s="16"/>
+      <c r="AD54" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE54" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF54" s="16">
         <f>SUM($L$37:$P$41)</f>
         <v>138.03</v>
       </c>
-      <c r="AG54" s="17"/>
-    </row>
-    <row r="55" spans="1:51">
+      <c r="AG54" s="16"/>
+    </row>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.15">
       <c r="K55" t="s">
-        <v>229</v>
-      </c>
-      <c r="L55" s="17">
+        <v>197</v>
+      </c>
+      <c r="L55" s="16">
         <f>SUM($Q$12:$U$16)</f>
         <v>103.30000000000001</v>
       </c>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="P55" s="17">
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="P55" s="16">
         <f>SUM($Q$17:$U$21)</f>
         <v>134.15</v>
       </c>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="T55" s="17">
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="T55" s="16">
         <f>SUM($Q$22:$U$26)</f>
         <v>114.34</v>
       </c>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="X55" s="17">
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="X55" s="16">
         <f>SUM($Q$27:$U$31)</f>
         <v>143.29999999999998</v>
       </c>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="17"/>
-      <c r="AA55" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB55" s="17">
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB55" s="16">
         <f>SUM($Q$32:$U$36)</f>
         <v>129.93999999999997</v>
       </c>
-      <c r="AC55" s="17"/>
-      <c r="AD55" s="17"/>
-      <c r="AE55" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF55" s="17">
+      <c r="AC55" s="16"/>
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF55" s="16">
         <f>SUM($Q$37:$U$41)</f>
         <v>155.39000000000001</v>
       </c>
-      <c r="AG55" s="17"/>
-    </row>
-    <row r="56" spans="1:51">
+      <c r="AG55" s="16"/>
+    </row>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.15">
       <c r="K56" t="s">
-        <v>231</v>
-      </c>
-      <c r="L56" s="17">
+        <v>199</v>
+      </c>
+      <c r="L56" s="16">
         <f>SUM($V$12:$Z$16)</f>
         <v>158.48999999999995</v>
       </c>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="P56" s="17">
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="P56" s="16">
         <f>SUM($V$17:$Z$21)</f>
         <v>145.67999999999998</v>
       </c>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="T56" s="17">
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="T56" s="16">
         <f>SUM($V$22:$Z$26)</f>
         <v>143.18</v>
       </c>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="X56" s="17">
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="X56" s="16">
         <f>SUM($V$27:$Z$31)</f>
         <v>129.93999999999997</v>
       </c>
-      <c r="Y56" s="17"/>
-      <c r="Z56" s="17"/>
-      <c r="AA56" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB56" s="17">
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB56" s="16">
         <f>SUM($V$32:$Z$36)</f>
         <v>143.35999999999999</v>
       </c>
-      <c r="AC56" s="17"/>
-      <c r="AD56" s="17"/>
-      <c r="AE56" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="AF56" s="17">
+      <c r="AC56" s="16"/>
+      <c r="AD56" s="16"/>
+      <c r="AE56" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF56" s="16">
         <f>SUM($V$37:$Z$41)</f>
         <v>132.27999999999997</v>
       </c>
-      <c r="AG56" s="17"/>
-    </row>
-    <row r="57" spans="1:51">
+      <c r="AG56" s="16"/>
+    </row>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.15">
       <c r="K57" t="s">
-        <v>233</v>
-      </c>
-      <c r="L57" s="17">
+        <v>201</v>
+      </c>
+      <c r="L57" s="16">
         <f>SUM($AA$12:$AE$16)</f>
         <v>122.69000000000003</v>
       </c>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="P57" s="17">
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="P57" s="16">
         <f>SUM($AA$17:$AE$21)</f>
         <v>148.19</v>
       </c>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="T57" s="17">
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="T57" s="16">
         <f>SUM($AA$22:$AE$26)</f>
         <v>112.28</v>
       </c>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
-      <c r="W57" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="X57" s="17">
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="X57" s="16">
         <f>SUM($AA$27:$AE$31)</f>
         <v>132.38999999999999</v>
       </c>
-      <c r="Y57" s="17"/>
-      <c r="Z57" s="17"/>
-      <c r="AA57" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB57" s="17">
+      <c r="Y57" s="16"/>
+      <c r="Z57" s="16"/>
+      <c r="AA57" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB57" s="16">
         <f>SUM($AA$32:$AE$36)</f>
         <v>109.28000000000003</v>
       </c>
-      <c r="AC57" s="17"/>
-      <c r="AD57" s="17"/>
-      <c r="AE57" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="AF57" s="17">
+      <c r="AC57" s="16"/>
+      <c r="AD57" s="16"/>
+      <c r="AE57" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF57" s="16">
         <f>SUM($AA$37:$AE$41)</f>
         <v>142.61999999999998</v>
       </c>
-      <c r="AG57" s="17"/>
-    </row>
-    <row r="58" spans="1:51">
+      <c r="AG57" s="16"/>
+    </row>
+    <row r="58" spans="1:51" x14ac:dyDescent="0.15">
       <c r="K58" t="s">
-        <v>235</v>
-      </c>
-      <c r="L58" s="17">
+        <v>203</v>
+      </c>
+      <c r="L58" s="16">
         <f>SUM($AF$12:$AJ$16)</f>
         <v>176.20000000000002</v>
       </c>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="P58" s="17">
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="P58" s="16">
         <f>SUM($AF$17:$AJ$21)</f>
         <v>120.33000000000001</v>
       </c>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="T58" s="17">
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="T58" s="16">
         <f>SUM($AF$22:$AJ$26)</f>
         <v>159.58999999999997</v>
       </c>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="X58" s="17">
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="X58" s="16">
         <f>SUM($AF$27:$AJ$31)</f>
         <v>135.04</v>
       </c>
-      <c r="Y58" s="17"/>
-      <c r="Z58" s="17"/>
-      <c r="AA58" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB58" s="17">
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB58" s="16">
         <f>SUM($AF$32:$AJ$36)</f>
         <v>139.39000000000001</v>
       </c>
-      <c r="AC58" s="17"/>
-      <c r="AD58" s="17"/>
-      <c r="AE58" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF58" s="17">
+      <c r="AC58" s="16"/>
+      <c r="AD58" s="16"/>
+      <c r="AE58" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF58" s="16">
         <f>SUM($AF$37:$AJ$41)</f>
         <v>129.97999999999999</v>
       </c>
-      <c r="AG58" s="17"/>
-    </row>
-    <row r="59" spans="1:51">
+      <c r="AG58" s="16"/>
+    </row>
+    <row r="59" spans="1:51" x14ac:dyDescent="0.15">
       <c r="K59" t="s">
-        <v>237</v>
-      </c>
-      <c r="L59" s="17">
+        <v>205</v>
+      </c>
+      <c r="L59" s="16">
         <f>SUM($AK$12:$AO$16)</f>
         <v>117.62999999999998</v>
       </c>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="P59" s="17">
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="P59" s="16">
         <f>SUM($AK$17:$AO$21)</f>
         <v>171.80999999999997</v>
       </c>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="T59" s="17">
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="T59" s="16">
         <f>SUM($AK$22:$AO$26)</f>
         <v>104.82</v>
       </c>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17"/>
-      <c r="W59" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="X59" s="17">
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+      <c r="W59" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="X59" s="16">
         <f>SUM($AK$27:$AO$31)</f>
         <v>143.5</v>
       </c>
-      <c r="Y59" s="17"/>
-      <c r="Z59" s="17"/>
-      <c r="AA59" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB59" s="17">
+      <c r="Y59" s="16"/>
+      <c r="Z59" s="16"/>
+      <c r="AA59" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB59" s="16">
         <f>SUM($AK$32:$AO$36)</f>
         <v>119.32000000000002</v>
       </c>
-      <c r="AC59" s="17"/>
-      <c r="AD59" s="17"/>
-      <c r="AE59" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="AF59" s="17">
+      <c r="AC59" s="16"/>
+      <c r="AD59" s="16"/>
+      <c r="AE59" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF59" s="16">
         <f>SUM($AK$37:$AO$41)</f>
         <v>132.5</v>
       </c>
-      <c r="AG59" s="17"/>
+      <c r="AG59" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
@@ -19728,480 +19740,480 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="4" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6"/>
+      <c r="B1" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9" t="s">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7"/>
-      <c r="B18" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7"/>
-      <c r="B27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="7"/>
-      <c r="B29" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="7"/>
-      <c r="B30" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="7"/>
-      <c r="B31" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="7"/>
-      <c r="B32" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="7"/>
-      <c r="B33" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="7"/>
-      <c r="B34" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="7"/>
-      <c r="B35" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="E37" s="7"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E37" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B39">
         <f>0.93*0.85</f>
         <v>0.79049999999999998</v>
@@ -20214,360 +20226,360 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="4" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6"/>
+      <c r="B1" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="7"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="7"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="7"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="7"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="7"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="7"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="7"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="E37" s="7"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E37" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B39">
         <f>0.93*0.85</f>
         <v>0.79049999999999998</v>
@@ -20580,420 +20592,420 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="4" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6"/>
+      <c r="B1" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9" t="s">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7"/>
-      <c r="B18" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="7"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="7"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="7"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="7"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="7"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="7"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="7"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="E37" s="7"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E37" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B39">
         <f>0.93*0.85</f>
         <v>0.79049999999999998</v>
@@ -21006,530 +21018,530 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="63.75" customWidth="1"/>
     <col min="3" max="3" width="68.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9" t="s">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9" t="s">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="9" t="s">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10" t="s">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9" t="s">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9" t="s">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9" t="s">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9" t="s">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9" t="s">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9" t="s">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9" t="s">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="9" t="s">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9" t="s">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="9" t="s">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9" t="s">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9" t="s">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9" t="s">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9" t="s">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9" t="s">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="7"/>
-      <c r="B26" s="9" t="s">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="9" t="s">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7"/>
-      <c r="B28" s="9" t="s">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7"/>
-      <c r="B29" s="9" t="s">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="9" t="s">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="7"/>
-      <c r="B31" s="9" t="s">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="7"/>
-      <c r="B32" s="9" t="s">
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="7"/>
-      <c r="B33" s="9" t="s">
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="7"/>
-      <c r="B34" s="9" t="s">
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="7"/>
-      <c r="B35" s="9" t="s">
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="7"/>
-      <c r="B36" s="9" t="s">
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="7"/>
-      <c r="B37" s="9" t="s">
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="7"/>
-      <c r="B38" s="9" t="s">
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="7"/>
-      <c r="B39" s="9" t="s">
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="7"/>
-      <c r="B40" s="9" t="s">
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="6"/>
+      <c r="B40" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="7"/>
-      <c r="B41" s="9" t="s">
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
+      <c r="B41" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="7"/>
-      <c r="B42" s="9" t="s">
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="B42" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="7"/>
-      <c r="B43" s="9" t="s">
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="B43" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="7"/>
-      <c r="B44" s="9" t="s">
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="B44" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="7"/>
-      <c r="B45" s="9" t="s">
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="B45" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="7"/>
-      <c r="B46" s="9" t="s">
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
+      <c r="B46" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="7"/>
-      <c r="B47" s="9" t="s">
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
+      <c r="B47" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="7"/>
-      <c r="B48" s="9" t="s">
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
+      <c r="B48" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="7"/>
-      <c r="B49" s="9" t="s">
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="6"/>
+      <c r="B49" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="7"/>
-      <c r="B50" s="9" t="s">
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="6"/>
+      <c r="B50" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
@@ -21538,370 +21550,370 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="63.75" customWidth="1"/>
     <col min="3" max="3" width="68.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9" t="s">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9" t="s">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10" t="s">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9" t="s">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9" t="s">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9" t="s">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9" t="s">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9" t="s">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9" t="s">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9" t="s">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9" t="s">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="9" t="s">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9" t="s">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="9" t="s">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9" t="s">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9" t="s">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9" t="s">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9" t="s">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9" t="s">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="7"/>
-      <c r="B26" s="9" t="s">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="9" t="s">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7"/>
-      <c r="B28" s="9" t="s">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7"/>
-      <c r="B29" s="9" t="s">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="9" t="s">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="7"/>
-      <c r="B31" s="9" t="s">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="7"/>
-      <c r="B32" s="9" t="s">
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="7"/>
-      <c r="B33" s="9" t="s">
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="7"/>
-      <c r="B34" s="9" t="s">
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="7"/>
-      <c r="B35" s="9" t="s">
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>

--- a/kana_layout_2mora_score.xlsx
+++ b/kana_layout_2mora_score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Text\analysis\kana_layout_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07DF906-397D-4FFC-BD85-2128B47BADF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A25AC6-952A-4A4B-A686-08593A6FD58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_table" sheetId="1" r:id="rId1"/>
@@ -838,97 +838,7 @@
     <t>6500: cost=8.49, score=8.49, total_score=7534220.99</t>
   </si>
   <si>
-    <t>10: cost=3.93, score=19881.87, total_score=283544.75</t>
-  </si>
-  <si>
-    <t>100: cost=7.83, score=14289.75, total_score=1721228.26</t>
-  </si>
-  <si>
-    <t>500: cost=5.9, score=3292.81, total_score=4231319.39</t>
-  </si>
-  <si>
-    <t>1000: cost=9.03, score=2401.98, total_score=5530454.62</t>
-  </si>
-  <si>
-    <t>1500: cost=7.32, score=1155.85, total_score=6273344.57</t>
-  </si>
-  <si>
-    <t>2000: cost=6.9, score=662.4, total_score=6721391.41</t>
-  </si>
-  <si>
-    <t>2500: cost=8.17, score=490.2, total_score=7008572.56</t>
-  </si>
-  <si>
-    <t>3000: cost=7.83, score=289.71, total_score=7188799.35</t>
-  </si>
-  <si>
-    <t>3500: cost=7.43, score=178.34, total_score=7304154.32</t>
-  </si>
-  <si>
-    <t>4000: cost=6.72, score=100.73, total_score=7378877.87</t>
-  </si>
-  <si>
-    <t>4500: cost=7.09, score=70.95, total_score=7427560.87</t>
-  </si>
-  <si>
-    <t>5000: cost=7.13, score=42.78, total_score=7459182.13</t>
-  </si>
-  <si>
-    <t>5500: cost=7.2, score=28.8, total_score=7478351.23</t>
-  </si>
-  <si>
-    <t>6000: cost=6.56, score=13.11, total_score=7489852.6</t>
-  </si>
-  <si>
-    <t>6500: cost=9.13, score=9.13, total_score=7496514.63</t>
-  </si>
-  <si>
     <t>1: cost=4.49, score=33617.38, total_score=33617.38</t>
-  </si>
-  <si>
-    <t>10: cost=5.7, score=28838.83, total_score=314451.3</t>
-  </si>
-  <si>
-    <t>100: cost=7.0, score=12775.0, total_score=1769157.05</t>
-  </si>
-  <si>
-    <t>500: cost=11.77, score=6570.22, total_score=4276122.19</t>
-  </si>
-  <si>
-    <t>1000: cost=6.91, score=1837.0, total_score=5569470.73</t>
-  </si>
-  <si>
-    <t>1500: cost=7.03, score=1110.74, total_score=6321072.01</t>
-  </si>
-  <si>
-    <t>2000: cost=10.47, score=1005.12, total_score=6801439.48</t>
-  </si>
-  <si>
-    <t>2500: cost=10.93, score=655.8, total_score=7117968.45</t>
-  </si>
-  <si>
-    <t>3000: cost=8.4, score=310.77, total_score=7321955.36</t>
-  </si>
-  <si>
-    <t>3500: cost=9.33, score=223.87, total_score=7453415.21</t>
-  </si>
-  <si>
-    <t>4000: cost=6.84, score=102.54, total_score=7543263.29</t>
-  </si>
-  <si>
-    <t>4500: cost=10.83, score=108.3, total_score=7603622.91</t>
-  </si>
-  <si>
-    <t>5000: cost=7.17, score=43.0, total_score=7643824.79</t>
-  </si>
-  <si>
-    <t>5500: cost=8.09, score=32.38, total_score=7668689.63</t>
-  </si>
-  <si>
-    <t>6000: cost=11.33, score=22.66, total_score=7684194.31</t>
-  </si>
-  <si>
-    <t>6500: cost=8.4, score=8.4, total_score=7692845.59</t>
   </si>
   <si>
     <t>左手→左手補正=0.79 / 左手→右手補正=0.93 / 右手→左手補正=0.85</t>
@@ -962,60 +872,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">score = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>6.59</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>; total_score = 7497278.61, total_count = 1137532</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">score = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>6.76</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>; total_score = 7693749.63, total_count = 1137532</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>1: word=して, count=1102, total_count=1102</t>
   </si>
   <si>
@@ -1533,6 +1389,150 @@
     </r>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>10: cost=3.93, score=19881.87, total_score=278187.75</t>
+  </si>
+  <si>
+    <t>100: cost=7.83, score=14289.75, total_score=1667756.26</t>
+  </si>
+  <si>
+    <t>500: cost=4.9, score=2734.81, total_score=4088585.39</t>
+  </si>
+  <si>
+    <t>1000: cost=9.03, score=2401.98, total_score=5339693.62</t>
+  </si>
+  <si>
+    <t>1500: cost=6.32, score=997.85, total_score=6057763.57</t>
+  </si>
+  <si>
+    <t>2000: cost=5.9, score=566.4, total_score=6486641.41</t>
+  </si>
+  <si>
+    <t>2500: cost=8.17, score=490.2, total_score=6764740.56</t>
+  </si>
+  <si>
+    <t>3000: cost=7.83, score=289.71, total_score=6938235.35</t>
+  </si>
+  <si>
+    <t>3500: cost=7.43, score=178.34, total_score=7049599.32</t>
+  </si>
+  <si>
+    <t>4000: cost=5.72, score=85.73, total_score=7121999.87</t>
+  </si>
+  <si>
+    <t>4500: cost=6.09, score=60.95, total_score=7169371.87</t>
+  </si>
+  <si>
+    <t>5000: cost=6.13, score=36.78, total_score=7200057.13</t>
+  </si>
+  <si>
+    <t>5500: cost=7.2, score=28.8, total_score=7218655.23</t>
+  </si>
+  <si>
+    <t>6000: cost=5.56, score=11.11, total_score=7229892.6</t>
+  </si>
+  <si>
+    <t>6500: cost=9.13, score=9.13, total_score=7236386.63</t>
+  </si>
+  <si>
+    <t>10: cost=5.7, score=28838.83, total_score=303737.3</t>
+  </si>
+  <si>
+    <t>100: cost=7.0, score=12775.0, total_score=1707162.14</t>
+  </si>
+  <si>
+    <t>500: cost=11.77, score=6570.22, total_score=4080315.3</t>
+  </si>
+  <si>
+    <t>1000: cost=6.91, score=1837.0, total_score=5306785.26</t>
+  </si>
+  <si>
+    <t>1500: cost=7.03, score=1110.74, total_score=6029200.43</t>
+  </si>
+  <si>
+    <t>2000: cost=10.47, score=1005.12, total_score=6483768.66</t>
+  </si>
+  <si>
+    <t>2500: cost=10.93, score=655.8, total_score=6781670.75</t>
+  </si>
+  <si>
+    <t>3000: cost=4.82, score=178.32, total_score=6973359.38</t>
+  </si>
+  <si>
+    <t>3500: cost=9.33, score=223.87, total_score=7096507.03</t>
+  </si>
+  <si>
+    <t>4000: cost=6.84, score=102.54, total_score=7181033.92</t>
+  </si>
+  <si>
+    <t>4500: cost=10.83, score=108.3, total_score=7238316.68</t>
+  </si>
+  <si>
+    <t>5000: cost=7.17, score=43.0, total_score=7276627.55</t>
+  </si>
+  <si>
+    <t>5500: cost=8.09, score=32.38, total_score=7300454.13</t>
+  </si>
+  <si>
+    <t>6000: cost=11.33, score=22.66, total_score=7315393.0</t>
+  </si>
+  <si>
+    <t>6500: cost=5.83, score=5.83, total_score=7323722.79</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">score = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>6.36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>; total_score = 7237132.61, total_count = 1137532</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">score = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>6.44</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>; total_score = 7324535.07, total_count = 1137532</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
@@ -1543,7 +1543,7 @@
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2588,18 +2588,18 @@
   <dimension ref="A1:AY59"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P54" sqref="P54"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12:AO41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="50" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:51">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>11.53</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:51">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:51">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:51">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>8.3699999999999992</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:51">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:51">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>10.43</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:51">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:51">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>8.43</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:51">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:51">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:51">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:51">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:51">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:51">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:51">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:51">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:51">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:51">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:51">
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:51">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:51">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:51">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:51">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:51">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:51">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:51">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:51">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:51">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:51">
       <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:51">
       <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:51">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:51">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:51">
       <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:51">
       <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:51">
       <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:51">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:51">
       <c r="A38" s="3" t="s">
         <v>27</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:51">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:51">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:51">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:51">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:51">
       <c r="A43" s="3" t="s">
         <v>32</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:51">
       <c r="A44" s="3" t="s">
         <v>33</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:51">
       <c r="A45" s="3" t="s">
         <v>34</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:51">
       <c r="A46" s="3" t="s">
         <v>35</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:51">
       <c r="A47" s="3" t="s">
         <v>36</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:51">
       <c r="A48" s="3" t="s">
         <v>37</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>9.67</v>
       </c>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:51">
       <c r="A49" s="3" t="s">
         <v>38</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>10.17</v>
       </c>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:51">
       <c r="A50" s="3" t="s">
         <v>39</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:51">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:51">
       <c r="J52" s="13" t="s">
         <v>217</v>
       </c>
@@ -10534,7 +10534,7 @@
       <c r="AF52" s="13"/>
       <c r="AG52" s="13"/>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:51">
       <c r="J53" s="14">
         <v>0.93</v>
       </c>
@@ -10564,7 +10564,7 @@
       <c r="AF53" s="13"/>
       <c r="AG53" s="13"/>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:51">
       <c r="J54" s="13" t="s">
         <v>194</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>138.02299999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:51">
       <c r="J55" s="13"/>
       <c r="K55" s="13" t="s">
         <v>198</v>
@@ -10728,7 +10728,7 @@
         <v>7.2819000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:51">
       <c r="J56" s="13"/>
       <c r="K56" s="13" t="s">
         <v>200</v>
@@ -10802,7 +10802,7 @@
         <v>132.21749999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:51">
       <c r="J57" s="13"/>
       <c r="K57" s="13" t="s">
         <v>202</v>
@@ -10876,7 +10876,7 @@
         <v>142.61999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:51">
       <c r="J58" s="13"/>
       <c r="K58" s="13" t="s">
         <v>204</v>
@@ -10950,7 +10950,7 @@
         <v>129.95649999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:51">
       <c r="J59" s="13"/>
       <c r="K59" s="13" t="s">
         <v>206</v>
@@ -11034,22 +11034,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="61.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="20.25" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="12" t="s">
         <v>50</v>
@@ -11061,7 +11061,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
         <v>54</v>
@@ -11073,7 +11073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="6"/>
       <c r="B4" s="8" t="s">
         <v>174</v>
@@ -11085,7 +11085,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
         <v>56</v>
@@ -11097,19 +11097,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="6"/>
       <c r="B6" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="6"/>
       <c r="B7" s="8" t="s">
         <v>58</v>
@@ -11121,19 +11121,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="6"/>
       <c r="B8" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="6"/>
       <c r="B9" s="8" t="s">
         <v>60</v>
@@ -11145,19 +11145,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="B10" s="8" t="s">
         <v>179</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
         <v>62</v>
@@ -11169,19 +11169,19 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="6"/>
       <c r="B12" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="6"/>
       <c r="B13" s="8" t="s">
         <v>64</v>
@@ -11193,19 +11193,19 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="8" t="s">
         <v>181</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="8" t="s">
         <v>66</v>
@@ -11217,19 +11217,19 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="6"/>
       <c r="B16" s="8" t="s">
         <v>182</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="6"/>
       <c r="B17" s="8" t="s">
         <v>68</v>
@@ -11241,19 +11241,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="6"/>
       <c r="B18" s="8" t="s">
         <v>183</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="6"/>
       <c r="B19" s="8" t="s">
         <v>70</v>
@@ -11265,19 +11265,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="6"/>
       <c r="B20" s="8" t="s">
         <v>184</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="6"/>
       <c r="B21" s="8" t="s">
         <v>72</v>
@@ -11289,19 +11289,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="6"/>
       <c r="B22" s="8" t="s">
         <v>185</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="6"/>
       <c r="B23" s="8" t="s">
         <v>74</v>
@@ -11313,19 +11313,19 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="6"/>
       <c r="B24" s="8" t="s">
         <v>186</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="6"/>
       <c r="B25" s="8" t="s">
         <v>76</v>
@@ -11337,19 +11337,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="6"/>
       <c r="B26" s="8" t="s">
         <v>187</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="6"/>
       <c r="B27" s="8" t="s">
         <v>78</v>
@@ -11361,19 +11361,19 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="6"/>
       <c r="B28" s="8" t="s">
         <v>188</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="6"/>
       <c r="B29" s="8" t="s">
         <v>80</v>
@@ -11385,19 +11385,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="6"/>
       <c r="B30" s="8" t="s">
         <v>189</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="6"/>
       <c r="B31" s="8" t="s">
         <v>82</v>
@@ -11409,19 +11409,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="6"/>
       <c r="B32" s="8" t="s">
         <v>190</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="6"/>
       <c r="B33" s="8" t="s">
         <v>84</v>
@@ -11433,31 +11433,31 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="6"/>
       <c r="B34" s="8" t="s">
         <v>191</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="6"/>
       <c r="B35" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -11480,12 +11480,12 @@
       <selection pane="bottomRight" activeCell="AF59" sqref="AF59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="50" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:51">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:51">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:51">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:51">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>8.0299999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:51">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>9.27</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:51">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>10.43</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:51">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:51">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>8.43</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:51">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:51">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:51">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:51">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:51">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:51">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:51">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:51">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:51">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:51">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -14430,7 +14430,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:51">
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:51">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:51">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:51">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:51">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:51">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:51">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:51">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
@@ -15670,7 +15670,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:51">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:51">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
@@ -15980,7 +15980,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:51">
       <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:51">
       <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
@@ -16290,7 +16290,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:51">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:51">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -16600,7 +16600,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:51">
       <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
@@ -16755,7 +16755,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:51">
       <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
@@ -16910,7 +16910,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:51">
       <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:51">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -17220,7 +17220,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:51">
       <c r="A38" s="3" t="s">
         <v>27</v>
       </c>
@@ -17375,7 +17375,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:51">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
@@ -17530,7 +17530,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:51">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:51">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -17840,7 +17840,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:51">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -17995,7 +17995,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:51">
       <c r="A43" s="3" t="s">
         <v>32</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:51">
       <c r="A44" s="3" t="s">
         <v>33</v>
       </c>
@@ -18305,7 +18305,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:51">
       <c r="A45" s="3" t="s">
         <v>34</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:51">
       <c r="A46" s="3" t="s">
         <v>35</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:51">
       <c r="A47" s="3" t="s">
         <v>36</v>
       </c>
@@ -18770,7 +18770,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:51">
       <c r="A48" s="3" t="s">
         <v>37</v>
       </c>
@@ -18925,7 +18925,7 @@
         <v>9.67</v>
       </c>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:51">
       <c r="A49" s="3" t="s">
         <v>38</v>
       </c>
@@ -19080,7 +19080,7 @@
         <v>10.17</v>
       </c>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:51">
       <c r="A50" s="3" t="s">
         <v>39</v>
       </c>
@@ -19235,7 +19235,7 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:51">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -19390,7 +19390,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:51">
       <c r="J54" t="s">
         <v>193</v>
       </c>
@@ -19458,7 +19458,7 @@
       </c>
       <c r="AG54" s="16"/>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:51">
       <c r="K55" t="s">
         <v>197</v>
       </c>
@@ -19513,7 +19513,7 @@
       </c>
       <c r="AG55" s="16"/>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:51">
       <c r="K56" t="s">
         <v>199</v>
       </c>
@@ -19568,7 +19568,7 @@
       </c>
       <c r="AG56" s="16"/>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:51">
       <c r="K57" t="s">
         <v>201</v>
       </c>
@@ -19623,7 +19623,7 @@
       </c>
       <c r="AG57" s="16"/>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:51">
       <c r="K58" t="s">
         <v>203</v>
       </c>
@@ -19678,7 +19678,7 @@
       </c>
       <c r="AG58" s="16"/>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:51">
       <c r="K59" t="s">
         <v>205</v>
       </c>
@@ -19743,25 +19743,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="27" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="10" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="20.25" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="12" t="s">
         <v>50</v>
@@ -19774,7 +19774,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
         <v>54</v>
@@ -19787,7 +19787,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="8" t="s">
         <v>219</v>
@@ -19796,11 +19796,11 @@
         <v>176</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
         <v>56</v>
@@ -19813,20 +19813,20 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="6"/>
       <c r="B6" s="8" t="s">
         <v>220</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>235</v>
+        <v>346</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" s="8" t="s">
         <v>58</v>
@@ -19839,20 +19839,20 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="6"/>
       <c r="B8" s="9" t="s">
         <v>221</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>252</v>
+        <v>362</v>
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="6"/>
       <c r="B9" s="8" t="s">
         <v>60</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="6"/>
       <c r="B10" s="8" t="s">
         <v>222</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>237</v>
+        <v>348</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
         <v>62</v>
@@ -19891,20 +19891,20 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="6"/>
       <c r="B12" s="8" t="s">
         <v>223</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>238</v>
+        <v>349</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>254</v>
+        <v>364</v>
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="6"/>
       <c r="B13" s="8" t="s">
         <v>64</v>
@@ -19917,20 +19917,20 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="6"/>
       <c r="B14" s="8" t="s">
         <v>224</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>239</v>
+        <v>350</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>255</v>
+        <v>365</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="6"/>
       <c r="B15" s="8" t="s">
         <v>66</v>
@@ -19943,20 +19943,20 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="6"/>
       <c r="B16" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>240</v>
+        <v>351</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>256</v>
+        <v>366</v>
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="6"/>
       <c r="B17" s="8" t="s">
         <v>68</v>
@@ -19969,20 +19969,20 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="6"/>
       <c r="B18" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>241</v>
+        <v>352</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>257</v>
+        <v>367</v>
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="6"/>
       <c r="B19" s="8" t="s">
         <v>70</v>
@@ -19995,20 +19995,20 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="6"/>
       <c r="B20" s="8" t="s">
         <v>227</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>242</v>
+        <v>353</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>258</v>
+        <v>368</v>
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="6"/>
       <c r="B21" s="8" t="s">
         <v>72</v>
@@ -20021,20 +20021,20 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="6"/>
       <c r="B22" s="8" t="s">
         <v>228</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>259</v>
+        <v>369</v>
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="6"/>
       <c r="B23" s="8" t="s">
         <v>74</v>
@@ -20047,20 +20047,20 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="6"/>
       <c r="B24" s="8" t="s">
         <v>229</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>244</v>
+        <v>355</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="6"/>
       <c r="B25" s="8" t="s">
         <v>76</v>
@@ -20073,20 +20073,20 @@
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="6"/>
       <c r="B26" s="8" t="s">
         <v>230</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>245</v>
+        <v>356</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>261</v>
+        <v>371</v>
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="6"/>
       <c r="B27" s="8" t="s">
         <v>78</v>
@@ -20099,20 +20099,20 @@
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" s="6"/>
       <c r="B28" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>246</v>
+        <v>357</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>262</v>
+        <v>372</v>
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="6"/>
       <c r="B29" s="8" t="s">
         <v>80</v>
@@ -20125,20 +20125,20 @@
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" s="6"/>
       <c r="B30" s="8" t="s">
         <v>232</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>263</v>
+        <v>373</v>
       </c>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" s="6"/>
       <c r="B31" s="8" t="s">
         <v>82</v>
@@ -20151,20 +20151,20 @@
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" s="6"/>
       <c r="B32" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>248</v>
+        <v>359</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>264</v>
+        <v>374</v>
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="6"/>
       <c r="B33" s="8" t="s">
         <v>84</v>
@@ -20177,43 +20177,43 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" s="6"/>
       <c r="B34" s="8" t="s">
         <v>234</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>249</v>
+        <v>360</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>265</v>
+        <v>375</v>
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="A35" s="6"/>
       <c r="B35" s="8" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>268</v>
+        <v>376</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>269</v>
+        <v>377</v>
       </c>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="E37" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="B39">
         <f>0.93*0.85</f>
         <v>0.79049999999999998</v>
@@ -20233,21 +20233,21 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="27" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="10" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="20.25" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="12" t="s">
         <v>50</v>
@@ -20260,326 +20260,326 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="8" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="6"/>
       <c r="B6" s="8" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" s="8" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="6"/>
       <c r="B8" s="9" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="6"/>
       <c r="B9" s="8" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="6"/>
       <c r="B10" s="8" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="6"/>
       <c r="B12" s="8" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="6"/>
       <c r="B13" s="8" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="6"/>
       <c r="B14" s="8" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="6"/>
       <c r="B15" s="8" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="6"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="6"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="6"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="6"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="6"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="6"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="6"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="6"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="6"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" s="6"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="6"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" s="6"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" s="6"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" s="6"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="6"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" s="6"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="A35" s="6"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="E37" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="B39">
         <f>0.93*0.85</f>
         <v>0.79049999999999998</v>
@@ -20599,21 +20599,21 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="27" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="10" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="20.25" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="12" t="s">
         <v>50</v>
@@ -20626,386 +20626,386 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>331</v>
-      </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="6"/>
       <c r="B6" s="8" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" s="8" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="6"/>
       <c r="B8" s="9" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="6"/>
       <c r="B9" s="8" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="6"/>
       <c r="B10" s="8" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="6"/>
       <c r="B12" s="8" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="6"/>
       <c r="B13" s="8" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="6"/>
       <c r="B14" s="8" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="6"/>
       <c r="B15" s="8" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="6"/>
       <c r="B16" s="8" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="6"/>
       <c r="B17" s="8" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="6"/>
       <c r="B18" s="8" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="6"/>
       <c r="B19" s="8" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="6"/>
       <c r="B20" s="8" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="6"/>
       <c r="B21" s="8" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="6"/>
       <c r="B22" s="8" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="6"/>
       <c r="B23" s="8" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="6"/>
       <c r="B24" s="8" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="6"/>
       <c r="B25" s="8" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="6"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="6"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" s="6"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="6"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" s="6"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" s="6"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" s="6"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="6"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" s="6"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="A35" s="6"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="E37" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="B39">
         <f>0.93*0.85</f>
         <v>0.79049999999999998</v>
@@ -21025,19 +21025,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="63.75" customWidth="1"/>
     <col min="3" max="3" width="68.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="20.25" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="10" t="s">
         <v>172</v>
@@ -21045,7 +21045,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>50</v>
@@ -21055,7 +21055,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="6"/>
       <c r="B4" s="8" t="s">
         <v>133</v>
@@ -21065,7 +21065,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
         <v>123</v>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="6"/>
       <c r="B6" s="8" t="s">
         <v>118</v>
@@ -21085,7 +21085,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="6"/>
       <c r="B7" s="8" t="s">
         <v>106</v>
@@ -21095,7 +21095,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="6"/>
       <c r="B8" s="8" t="s">
         <v>139</v>
@@ -21105,7 +21105,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="6"/>
       <c r="B9" s="9" t="s">
         <v>140</v>
@@ -21115,7 +21115,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="B10" s="8" t="s">
         <v>141</v>
@@ -21125,7 +21125,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
         <v>106</v>
@@ -21135,7 +21135,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="6"/>
       <c r="B12" s="8" t="s">
         <v>142</v>
@@ -21145,7 +21145,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="6"/>
       <c r="B13" s="8" t="s">
         <v>143</v>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="8" t="s">
         <v>144</v>
@@ -21165,7 +21165,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="8" t="s">
         <v>106</v>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="6"/>
       <c r="B16" s="8" t="s">
         <v>145</v>
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="6"/>
       <c r="B17" s="8" t="s">
         <v>146</v>
@@ -21195,7 +21195,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="6"/>
       <c r="B18" s="8" t="s">
         <v>147</v>
@@ -21205,7 +21205,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="6"/>
       <c r="B19" s="8" t="s">
         <v>106</v>
@@ -21215,7 +21215,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="6"/>
       <c r="B20" s="8" t="s">
         <v>148</v>
@@ -21225,7 +21225,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="6"/>
       <c r="B21" s="8" t="s">
         <v>149</v>
@@ -21235,7 +21235,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="6"/>
       <c r="B22" s="8" t="s">
         <v>150</v>
@@ -21245,7 +21245,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="6"/>
       <c r="B23" s="8" t="s">
         <v>106</v>
@@ -21255,7 +21255,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="6"/>
       <c r="B24" s="8" t="s">
         <v>151</v>
@@ -21265,7 +21265,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="6"/>
       <c r="B25" s="8" t="s">
         <v>152</v>
@@ -21275,7 +21275,7 @@
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="6"/>
       <c r="B26" s="8" t="s">
         <v>153</v>
@@ -21285,7 +21285,7 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="6"/>
       <c r="B27" s="8" t="s">
         <v>106</v>
@@ -21295,7 +21295,7 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="6"/>
       <c r="B28" s="8" t="s">
         <v>154</v>
@@ -21305,7 +21305,7 @@
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="6"/>
       <c r="B29" s="8" t="s">
         <v>155</v>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="6"/>
       <c r="B30" s="8" t="s">
         <v>156</v>
@@ -21325,7 +21325,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="6"/>
       <c r="B31" s="8" t="s">
         <v>106</v>
@@ -21335,7 +21335,7 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="6"/>
       <c r="B32" s="8" t="s">
         <v>157</v>
@@ -21345,7 +21345,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="6"/>
       <c r="B33" s="8" t="s">
         <v>158</v>
@@ -21355,7 +21355,7 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="6"/>
       <c r="B34" s="8" t="s">
         <v>159</v>
@@ -21365,7 +21365,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="6"/>
       <c r="B35" s="8" t="s">
         <v>106</v>
@@ -21375,7 +21375,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="6"/>
       <c r="B36" s="8" t="s">
         <v>160</v>
@@ -21385,7 +21385,7 @@
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="6"/>
       <c r="B37" s="8" t="s">
         <v>161</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" s="6"/>
       <c r="B38" s="8" t="s">
         <v>162</v>
@@ -21405,7 +21405,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" s="6"/>
       <c r="B39" s="8" t="s">
         <v>106</v>
@@ -21415,7 +21415,7 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" s="6"/>
       <c r="B40" s="8" t="s">
         <v>163</v>
@@ -21425,7 +21425,7 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41" s="6"/>
       <c r="B41" s="8" t="s">
         <v>164</v>
@@ -21435,7 +21435,7 @@
       </c>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42" s="6"/>
       <c r="B42" s="8" t="s">
         <v>165</v>
@@ -21445,7 +21445,7 @@
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43" s="6"/>
       <c r="B43" s="8" t="s">
         <v>106</v>
@@ -21455,7 +21455,7 @@
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" s="6"/>
       <c r="B44" s="8" t="s">
         <v>166</v>
@@ -21465,7 +21465,7 @@
       </c>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" s="6"/>
       <c r="B45" s="8" t="s">
         <v>167</v>
@@ -21475,7 +21475,7 @@
       </c>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46" s="6"/>
       <c r="B46" s="8" t="s">
         <v>168</v>
@@ -21485,7 +21485,7 @@
       </c>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47" s="6"/>
       <c r="B47" s="8" t="s">
         <v>106</v>
@@ -21495,7 +21495,7 @@
       </c>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48" s="6"/>
       <c r="B48" s="8" t="s">
         <v>169</v>
@@ -21505,7 +21505,7 @@
       </c>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49" s="6"/>
       <c r="B49" s="8" t="s">
         <v>170</v>
@@ -21515,7 +21515,7 @@
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50" s="6"/>
       <c r="B50" s="8" t="s">
         <v>171</v>
@@ -21525,19 +21525,19 @@
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -21557,19 +21557,19 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="63.75" customWidth="1"/>
     <col min="3" max="3" width="68.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>50</v>
@@ -21579,7 +21579,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
         <v>86</v>
@@ -21589,7 +21589,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="6"/>
       <c r="B4" s="8" t="s">
         <v>55</v>
@@ -21599,7 +21599,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
         <v>56</v>
@@ -21609,7 +21609,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="6"/>
       <c r="B6" s="8" t="s">
         <v>57</v>
@@ -21619,7 +21619,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="6"/>
       <c r="B7" s="8" t="s">
         <v>58</v>
@@ -21629,7 +21629,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="6"/>
       <c r="B8" s="9" t="s">
         <v>59</v>
@@ -21639,7 +21639,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="6"/>
       <c r="B9" s="8" t="s">
         <v>60</v>
@@ -21649,7 +21649,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="B10" s="8" t="s">
         <v>61</v>
@@ -21659,7 +21659,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
         <v>62</v>
@@ -21669,7 +21669,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="6"/>
       <c r="B12" s="8" t="s">
         <v>63</v>
@@ -21679,7 +21679,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="6"/>
       <c r="B13" s="8" t="s">
         <v>64</v>
@@ -21689,7 +21689,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="8" t="s">
         <v>65</v>
@@ -21699,7 +21699,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="8" t="s">
         <v>66</v>
@@ -21709,7 +21709,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="6"/>
       <c r="B16" s="8" t="s">
         <v>67</v>
@@ -21719,7 +21719,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="6"/>
       <c r="B17" s="8" t="s">
         <v>68</v>
@@ -21729,7 +21729,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="6"/>
       <c r="B18" s="8" t="s">
         <v>69</v>
@@ -21739,7 +21739,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="6"/>
       <c r="B19" s="8" t="s">
         <v>70</v>
@@ -21749,7 +21749,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="6"/>
       <c r="B20" s="8" t="s">
         <v>71</v>
@@ -21759,7 +21759,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="6"/>
       <c r="B21" s="8" t="s">
         <v>72</v>
@@ -21769,7 +21769,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="6"/>
       <c r="B22" s="8" t="s">
         <v>73</v>
@@ -21779,7 +21779,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="6"/>
       <c r="B23" s="8" t="s">
         <v>74</v>
@@ -21789,7 +21789,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="6"/>
       <c r="B24" s="8" t="s">
         <v>75</v>
@@ -21799,7 +21799,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="6"/>
       <c r="B25" s="8" t="s">
         <v>76</v>
@@ -21809,7 +21809,7 @@
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="6"/>
       <c r="B26" s="8" t="s">
         <v>77</v>
@@ -21819,7 +21819,7 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="6"/>
       <c r="B27" s="8" t="s">
         <v>78</v>
@@ -21829,7 +21829,7 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="6"/>
       <c r="B28" s="8" t="s">
         <v>79</v>
@@ -21839,7 +21839,7 @@
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="6"/>
       <c r="B29" s="8" t="s">
         <v>80</v>
@@ -21849,7 +21849,7 @@
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="6"/>
       <c r="B30" s="8" t="s">
         <v>81</v>
@@ -21859,7 +21859,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="6"/>
       <c r="B31" s="8" t="s">
         <v>82</v>
@@ -21869,7 +21869,7 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="6"/>
       <c r="B32" s="8" t="s">
         <v>83</v>
@@ -21879,7 +21879,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="6"/>
       <c r="B33" s="8" t="s">
         <v>84</v>
@@ -21889,7 +21889,7 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="6"/>
       <c r="B34" s="8" t="s">
         <v>85</v>
@@ -21899,7 +21899,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="6"/>
       <c r="B35" s="8" t="s">
         <v>53</v>
@@ -21909,7 +21909,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
